--- a/ANNA IS MISSING-02.xlsx
+++ b/ANNA IS MISSING-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E220"/>
+  <dimension ref="A1:E222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,7 +963,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>00:02:41:24</t>
+          <t>00:02:49:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -2623,12 +2623,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>V.O.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>(ad lib)</t>
+          <t>(NINA ad lib)</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2673,12 +2673,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>V.O.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>(off) (ad lib)</t>
+          <t>(NINA off) (ad lib)</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>V.O.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>(ad lib)</t>
+          <t>(NINA ad lib)</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>00:09:34:18</t>
+          <t>00:09:27:22</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Agian bahitu egin dute. _ Edo... agian bahitu ez baina... norbaitek preso dauka nonbaiten.</t>
+          <t>Agian bahitu egin dute.</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -2963,22 +2963,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>00:09:27:22</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
           <t>00:09:34:18</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>00:09:36:19</t>
-        </is>
-      </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>TEREZA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Ee... nork, baina?</t>
+          <t>Edo... agian bahitu ez baina... norbaitek preso dauka nonbaiten.</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2988,14 +2988,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>00:09:34:18</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
           <t>00:09:36:19</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>00:09:45:17</t>
-        </is>
-      </c>
       <c r="C103" t="inlineStr">
         <is>
           <t>NINA</t>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Hori berdin da. Zera... argazki batzuk ikusi dizkiot ustekabean... nire ezagun bati.</t>
+          <t>Ee... nork, baina?</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -3013,22 +3013,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>00:09:36:19</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
           <t>00:09:45:17</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>00:09:52:01</t>
-        </is>
-      </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TEREZA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>(off) Eta zure ezagun horrek zerbait egin dio eta horregatik desagertu da? (on) Hori uste baduzu, deitu poliziari.</t>
+          <t>Hori berdin da. Zera... argazki batzuk ikusi dizkiot ustekabean... nire ezagun bati.</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -3038,22 +3038,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>00:09:45:17</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
           <t>00:09:52:01</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>00:10:00:24</t>
-        </is>
-      </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>TEREZA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Mm! Ez... eee... ez dut albiste faltsurik zabaldu nahi. Zera, ongi dagoela jakin nahi nuke.</t>
+          <t>(off) Eta zure ezagun horrek zerbait egin dio eta horregatik desagertu da? (on) Hori uste baduzu, deitu poliziari.</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -3063,14 +3063,14 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t>00:09:52:01</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
           <t>00:10:00:24</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>00:10:09:12</t>
-        </is>
-      </c>
       <c r="C106" t="inlineStr">
         <is>
           <t>NINA</t>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Zuk ere bai, ezta? Bere bideoen falta daukazula idatzi duzu. Zera... badakizu non bizi den?</t>
+          <t>Mm! Ez... eee... ez dut albiste faltsurik zabaldu nahi. Zera, ongi dagoela jakin nahi nuke.</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3088,14 +3088,14 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
+          <t>00:10:00:24</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
           <t>00:10:09:12</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>00:10:13:07</t>
-        </is>
-      </c>
       <c r="C107" t="inlineStr">
         <is>
           <t>NINA</t>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>(ad lib) Itxaron.</t>
+          <t>Zuk ere bai, ezta? Bere bideoen falta daukazula idatzi duzu. Zera... badakizu non bizi den?</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -3113,22 +3113,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>00:10:18:08</t>
+          <t>00:10:09:12</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>00:10:20:14</t>
+          <t>00:10:13:07</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>TEREZA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>(off) Niki bat eskatu nion Annari Internetez.</t>
+          <t>(ad lib) Itxaron.</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -3138,22 +3138,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>00:10:18:08</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
           <t>00:10:20:14</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>00:10:20:09</t>
-        </is>
-      </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>TEREZA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>(gainean) (ad lib)</t>
+          <t>(off) Niki bat eskatu nion Annari Internetez.</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -3163,22 +3163,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>00:10:20:14</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
           <t>00:10:20:09</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>00:10:22:11</t>
-        </is>
-      </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>TEREZA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Zorionez, ez nuen kutxa bota.</t>
+          <t>(gainean) (ad lib)</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -3188,12 +3188,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>00:10:24:02</t>
+          <t>00:10:20:09</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>00:10:28:15</t>
+          <t>00:10:22:11</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Bai, hemen helbide bat dago. Ee... Sabina Urbancová.</t>
+          <t>Zorionez, ez nuen kutxa bota.</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -3213,12 +3213,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>00:10:33:02</t>
+          <t>00:10:24:02</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>00:10:39:05</t>
+          <t>00:10:28:15</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3228,57 +3228,59 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>(ad lib)</t>
+          <t>Bai, hemen helbide bat dago. Ee... Sabina Urbancová.</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>00:10:39:05</t>
+          <t>00:10:38:05</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>00:10:39:10</t>
+          <t>00:10:39:04</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ROTULO</t>
+          <t>ROBIN</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Zeure burua mimatu behar duzula esaten dute. Ona naiz horretan!</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>9</v>
+          <t>(ad lib)</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>00:10:39:19</t>
+          <t>00:10:39:05</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>00:10:40:23</t>
+          <t>00:10:39:10</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>ROTULO</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>(off) Manikura egin behar zenuke.</t>
+          <t>Zeure burua mimatu behar duzula esaten dute. Ona naiz horretan!</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -3288,47 +3290,49 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
+          <t>00:10:39:10</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>00:10:40:23</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>00:10:46:00</t>
-        </is>
-      </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ROBIN</t>
+          <t>ROTULO</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Barrabilak! _ Ikusi. Hau ez da parte onekoa!</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>9</v>
+          <t>(off) Manikura egin behar zenuke.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>00:10:53:14</t>
+          <t>00:10:40:23</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>00:10:54:16</t>
+          <t>00:10:46:00</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>ROBIN</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Andre hau ez dago ondo.</t>
+          <t>Barrabilak! _ Ikusi. Hau ez da parte onekoa!</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -3338,22 +3342,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
+          <t>00:10:53:14</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>00:10:54:16</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>00:10:55:11</t>
-        </is>
-      </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ROBIN</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Mm. (ad lib)</t>
+          <t>Andre hau ez dago ondo.</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -3363,39 +3367,39 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>00:11:00:18</t>
+          <t>00:10:54:16</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>00:11:03:18</t>
+          <t>00:10:55:11</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>ROBIN</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Ee kaixo. Anna etxean dago?</t>
+          <t>Mm. (ad lib)</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
+          <t>00:11:00:18</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
           <t>00:11:03:18</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>00:11:06:02</t>
-        </is>
-      </c>
       <c r="C119" t="inlineStr">
         <is>
           <t>NINA</t>
@@ -3403,7 +3407,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>(atzean) Berarekin hitz egin beharra daukat.</t>
+          <t>Ee kaixo. Anna etxean dago?</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -3413,14 +3417,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
+          <t>00:11:03:18</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
           <t>00:11:06:02</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>00:11:07:16</t>
-        </is>
-      </c>
       <c r="C120" t="inlineStr">
         <is>
           <t>NINA</t>
@@ -3428,7 +3432,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Hemen ez da Annarik bizi.</t>
+          <t>(atzean) Berarekin hitz egin beharra daukat.</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -3438,22 +3442,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
+          <t>00:11:06:02</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
           <t>00:11:07:16</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>00:11:09:08</t>
-        </is>
-      </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ROBIN</t>
+          <t>SABINA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Mantal polita!</t>
+          <t>Hemen ez da Annarik bizi.</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -3463,14 +3467,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
+          <t>00:11:07:16</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
           <t>00:11:09:08</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>00:11:17:00</t>
-        </is>
-      </c>
       <c r="C122" t="inlineStr">
         <is>
           <t>ROBIN</t>
@@ -3478,7 +3482,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Like eman nizun Facebooken. (atzean) Eta gorputz zoragarria duzu. 14 urteko alaba daukazula pentsatzea ere!</t>
+          <t>Mantal polita!</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -3488,14 +3492,14 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t>00:11:09:08</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
           <t>00:11:17:00</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>00:11:23:12</t>
-        </is>
-      </c>
       <c r="C123" t="inlineStr">
         <is>
           <t>ROBIN</t>
@@ -3503,7 +3507,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>15 urtekoa. Anna ez dago etxean. Pilates egiten dut.</t>
+          <t>Like eman nizun Facebooken. (atzean) Eta gorputz zoragarria duzu. 14 urteko alaba daukazula pentsatzea ere!</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -3513,22 +3517,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>00:11:17:00</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
           <t>00:11:23:12</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>00:11:24:16</t>
-        </is>
-      </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ROBIN</t>
+          <t>SABINA</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Eta non aurkitu genezake?</t>
+          <t>15 urtekoa. Anna ez dago etxean. Pilates egiten dut.</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -3538,22 +3542,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>00:11:23:12</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
           <t>00:11:24:16</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>00:11:33:15</t>
-        </is>
-      </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SABINA</t>
+          <t>ROBIN</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>(atzean) Ez dakit. Egunak daramatza etxetik kanpora. (atzean-on) Nahi baduzue, bere sinadura duten nikiak dauzkat salgai. 700ean.</t>
+          <t>Eta non aurkitu genezake?</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -3563,22 +3567,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>00:11:24:16</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
           <t>00:11:33:15</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>00:11:34:09</t>
-        </is>
-      </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>SABINA</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Etxetik kanpora? (atzean) Non dabil ba?</t>
+          <t>(atzean) Ez dakit. Egunak daramatza etxetik kanpora. (atzean-on) Nahi baduzue, bere sinadura duten nikiak dauzkat salgai. 700ean.</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -3588,22 +3592,22 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>00:11:33:15</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
           <t>00:11:34:09</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>00:11:36:02</t>
-        </is>
-      </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SABINA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>(ad lib)</t>
+          <t>Etxetik kanpora? (atzean) Non dabil ba?</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -3613,22 +3617,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>00:11:39:19</t>
+          <t>00:11:34:09</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>00:11:43:13</t>
+          <t>00:11:36:02</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>SABINA</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>(atzean) Ez zabiltza bere bila?</t>
+          <t>(ad lib)</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -3638,22 +3642,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>00:11:46:09</t>
+          <t>00:11:39:19</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>00:11:48:11</t>
+          <t>00:11:43:13</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>ROBIN</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>(atzean-on) Agian zerbait gertatu zaiola ari da jendea esaten.</t>
+          <t>(atzean) Ez zabiltza bere bila?</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -3663,14 +3667,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
+          <t>00:11:46:09</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
           <t>00:11:48:11</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>00:11:51:02</t>
-        </is>
-      </c>
       <c r="C130" t="inlineStr">
         <is>
           <t>ROBIN</t>
@@ -3678,7 +3682,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Ez du ezer publikatu aspaldian.</t>
+          <t>(atzean-on) Agian zerbait gertatu zaiola ari da jendea esaten.</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -3688,12 +3692,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>00:11:53:05</t>
+          <t>00:11:48:11</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>00:11:56:02</t>
+          <t>00:11:51:02</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3703,7 +3707,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Bideo bereziren bat ariko da egiten. Besterik behar?</t>
+          <t>Ez du ezer publikatu aspaldian.</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -3713,22 +3717,22 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>00:11:53:05</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
           <t>00:11:56:02</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>00:11:59:20</t>
-        </is>
-      </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>ROBIN</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>(atzean-on) Badakizu Annak mutil-lagunik daukan?</t>
+          <t>Bideo bereziren bat ariko da egiten. Besterik behar?</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -3738,22 +3742,22 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>00:11:56:02</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
           <t>00:11:59:20</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>00:12:01:19</t>
-        </is>
-      </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ROBIN</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Zaharragoa den norbait.</t>
+          <t>(atzean-on) Badakizu Annak mutil-lagunik daukan?</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -3763,22 +3767,22 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>00:11:59:20</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
           <t>00:12:01:19</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>00:12:07:01</t>
-        </is>
-      </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>SABINA</t>
+          <t>ROBIN</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>(atzean) Bidaliozue mezu bat. (on) Eta ez gehiago hona etorri. Errespetatu pribatutasuna.</t>
+          <t>Zaharragoa den norbait.</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -3788,22 +3792,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>00:12:08:13</t>
+          <t>00:12:01:19</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>00:12:11:05</t>
+          <t>00:12:07:01</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ROBIN</t>
+          <t>SABINA</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>(ad lib) Niki hori nahi nuen...</t>
+          <t>(atzean) Bidaliozue mezu bat. (on) Eta ez gehiago hona etorri. Errespetatu pribatutasuna.</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -3813,22 +3817,22 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
+          <t>00:12:08:13</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
           <t>00:12:11:05</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>00:12:14:06</t>
-        </is>
-      </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>ROBIN</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Ene! Benetan desagertu ote da?</t>
+          <t>(ad lib) Niki hori nahi nuen...</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -3838,22 +3842,22 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
+          <t>00:12:11:05</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
           <t>00:12:14:06</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>00:12:18:09</t>
-        </is>
-      </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>ROBIN</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Ama tuntun honengandik alde egin du. (off) Nik berdin egingo nuen.</t>
+          <t>Ene! Benetan desagertu ote da?</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -3863,47 +3867,47 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>00:12:20:00</t>
+          <t>00:12:14:06</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>00:12:28:09</t>
+          <t>00:12:18:09</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>ROBIN</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>(atzean) Bai zera! Ezin liteke! Eta zuk sinistu, ala? Milioika euro erreklamatzen ditu. Enpresak nola ez zuen egiaztatuko!</t>
+          <t>Ama tuntun honengandik alde egin du. (off) Nik berdin egingo nuen.</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
+          <t>00:12:20:00</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
           <t>00:12:28:09</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>00:12:30:11</t>
-        </is>
-      </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>ALENA</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>(gainean) (ad lib) _ Ez, itxaron, ez hasi amaieratik. Erizainak...</t>
+          <t>(atzean) Bai zera! Ezin liteke! Eta zuk sinistu, ala? Milioika euro erreklamatzen ditu. Enpresak nola ez zuen egiaztatuko!</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -3913,22 +3917,22 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
+          <t>00:12:28:09</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
           <t>00:12:30:11</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>00:12:33:04</t>
-        </is>
-      </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>ALENA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>(gainean) Kontatu zer gertatu zen.</t>
+          <t>(gainean) (ad lib) _ Ez, itxaron, ez hasi amaieratik. Erizainak...</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -3938,22 +3942,22 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>00:12:30:11</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
           <t>00:12:33:04</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>00:12:38:09</t>
-        </is>
-      </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ALENA</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>(off) ... gaixo bat zeraman gurpil-aulkian, eta igogailuan katigatu zitzaion hanka.</t>
+          <t>(gainean) Kontatu zer gertatu zen.</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -3963,22 +3967,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>00:12:33:04</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
           <t>00:12:38:09</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>00:12:42:06</t>
-        </is>
-      </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>ALENA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>(ad lib)</t>
+          <t>(off) ... gaixo bat zeraman gurpil-aulkian, eta igogailuan katigatu zitzaion hanka.</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -3988,22 +3992,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
+          <t>00:12:38:09</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
           <t>00:12:42:06</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>00:12:43:11</t>
-        </is>
-      </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>(off) Eskerrak atzerantz ez zihoazen!</t>
+          <t>(ad lib)</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -4013,22 +4017,22 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>00:12:47:20</t>
+          <t>00:12:42:06</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>00:12:48:14</t>
+          <t>00:12:43:11</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>(gainean) Hara nor datorren.</t>
+          <t>(off) Eskerrak atzerantz ez zihoazen!</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -4038,22 +4042,22 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>00:12:49:19</t>
+          <t>00:12:47:20</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>00:12:50:19</t>
+          <t>00:12:48:14</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ALENA</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Kaixo.</t>
+          <t>(gainean) Hara nor datorren.</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -4063,22 +4067,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>00:12:51:18</t>
+          <t>00:12:49:19</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>00:12:52:16</t>
+          <t>00:12:50:19</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>ALENA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Ahaztu egin zait lehenago etortzea.</t>
+          <t>Kaixo.</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -4088,22 +4092,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>00:12:53:04</t>
+          <t>00:12:51:18</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>00:12:53:19</t>
+          <t>00:12:52:16</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>LINDA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>(off) Makina bat bider deitu dizut!</t>
+          <t>Ahaztu egin zait lehenago etortzea.</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -4113,22 +4117,22 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>00:12:54:16</t>
+          <t>00:12:53:04</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>00:12:57:24</t>
+          <t>00:12:53:19</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>LINDA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>(off) Ee... eseri. (on) Eta? Zer moduz? (on-off) Non ibili zara?</t>
+          <t>(off) Makina bat bider deitu dizut!</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -4138,22 +4142,22 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
+          <t>00:12:54:16</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
           <t>00:12:57:24</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>00:12:59:19</t>
-        </is>
-      </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ALENA</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>(off) Zer moduz gure neska Robin?</t>
+          <t>(off) Ee... eseri. (on) Eta? Zer moduz? (on-off) Non ibili zara?</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -4163,22 +4167,22 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
+          <t>00:12:57:24</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
           <t>00:12:59:19</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>00:13:00:13</t>
-        </is>
-      </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>ALENA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Mutila da!</t>
+          <t>(off) Zer moduz gure neska Robin?</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -4188,22 +4192,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>00:12:59:19</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
           <t>00:13:00:13</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>00:13:02:02</t>
-        </is>
-      </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>O! Robin mutila da!</t>
+          <t>Mutila da!</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -4213,22 +4217,22 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
+          <t>00:13:00:13</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
           <t>00:13:02:02</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>00:13:03:19</t>
-        </is>
-      </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>ALENA</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>(gainean) Robin mutila da.</t>
+          <t>O! Robin mutila da!</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -4238,14 +4242,14 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
+          <t>00:13:02:02</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
           <t>00:13:03:19</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>00:13:07:04</t>
-        </is>
-      </c>
       <c r="C153" t="inlineStr">
         <is>
           <t>ALENA</t>
@@ -4253,7 +4257,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Ez bota arrautzarik aurpegira esan behar ez nuena esateagatik.</t>
+          <t>(gainean) Robin mutila da.</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -4263,22 +4267,22 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>00:13:03:19</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
           <t>00:13:07:04</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>00:13:12:14</t>
-        </is>
-      </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>ALENA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>(off) Ez, lasai. (on) Gure artean ez dago sekreturik. Ezta, aita?</t>
+          <t>Ez bota arrautzarik aurpegira esan behar ez nuena esateagatik.</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -4288,22 +4292,22 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>00:13:17:01</t>
+          <t>00:13:07:04</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>00:13:17:17</t>
+          <t>00:13:12:14</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>(ad lib)</t>
+          <t>(off) Ez, lasai. (on) Gure artean ez dago sekreturik. Ezta, aita?</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -4313,22 +4317,22 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
+          <t>00:13:17:01</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
           <t>00:13:17:17</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>00:13:19:00</t>
-        </is>
-      </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>(off) Hori ona da.</t>
+          <t>(ad lib)</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -4338,22 +4342,22 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
+          <t>00:13:17:17</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
           <t>00:13:19:00</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>00:13:22:19</t>
-        </is>
-      </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>(off-on) Horrelakoxea da pubertaroa.</t>
+          <t>(off) Hori ona da.</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -4363,22 +4367,22 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
+          <t>00:13:19:00</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
           <t>00:13:22:19</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>00:13:23:24</t>
-        </is>
-      </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>(off) (ad lib)</t>
+          <t>(off-on) Horrelakoxea da pubertaroa.</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -4388,47 +4392,47 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>00:13:36:18</t>
+          <t>00:13:22:19</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>00:13:37:23</t>
+          <t>00:13:23:24</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ALENA</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Egun txarra?</t>
+          <t>(off) (ad lib)</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
+          <t>00:13:36:18</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
           <t>00:13:37:23</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>00:13:44:11</t>
-        </is>
-      </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>ALENA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>(ad lib) _ Herpes genitala daukat. Azkura ematen dit, badakizu.</t>
+          <t>Egun txarra?</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -4438,22 +4442,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
+          <t>00:13:37:23</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
           <t>00:13:44:11</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>00:13:49:09</t>
-        </is>
-      </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ALENA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Aizu ba... Nutella hartuta sendatuko zaizu!</t>
+          <t>(ad lib) _ Herpes genitala daukat. Azkura ematen dit, badakizu.</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -4463,22 +4467,22 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>00:13:51:21</t>
+          <t>00:13:44:11</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>00:13:53:02</t>
+          <t>00:13:49:09</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>ALENA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Pixka bat nahi?</t>
+          <t>Aizu ba... Nutella hartuta sendatuko zaizu!</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -4488,22 +4492,22 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>00:13:54:10</t>
+          <t>00:13:51:21</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>00:13:57:02</t>
+          <t>00:13:53:02</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>ALENA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Ez. Ea kutsatzen didazun! (ad lib)</t>
+          <t>Pixka bat nahi?</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -4513,22 +4517,22 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
+          <t>00:13:54:10</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
           <t>00:13:57:02</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>00:13:58:02</t>
-        </is>
-      </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>ALENA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>(gainean) (ad lib)</t>
+          <t>Ez. Ea kutsatzen didazun! (ad lib)</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -4538,22 +4542,22 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>00:14:01:08</t>
+          <t>00:13:57:02</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>00:14:03:03</t>
+          <t>00:13:58:02</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ALENA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Eman ba.</t>
+          <t>(gainean) (ad lib)</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -4563,12 +4567,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>00:14:04:09</t>
+          <t>00:14:01:08</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>00:14:05:05</t>
+          <t>00:14:03:03</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4578,7 +4582,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>_ (ad lib)</t>
+          <t>Eman ba.</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -4588,12 +4592,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>00:14:07:17</t>
+          <t>00:14:04:09</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>00:14:10:18</t>
+          <t>00:14:05:05</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4603,7 +4607,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>(off) Nina? (on) Ardoa ekarriko diguzu, mesedez?</t>
+          <t>_ (ad lib)</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -4613,22 +4617,22 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>00:14:13:14</t>
+          <t>00:14:07:17</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>00:14:15:03</t>
+          <t>00:14:10:18</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>LINDA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>(off) Nik ere horixe esan nion, baina berak ezetz eta ezetz.</t>
+          <t>(off) Nina?</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -4638,22 +4642,22 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>00:14:18:05</t>
+          <t>00:14:09:01</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>00:14:19:04</t>
+          <t>00:14:10:11</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ALENA</t>
+          <t>LINDA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Kontaidazu.</t>
+          <t>(on) Ardoa ekarriko diguzu, mesedez?</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -4663,22 +4667,22 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>00:14:22:12</t>
+          <t>00:14:10:11</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>00:14:23:18</t>
+          <t>00:14:18:05</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>ALENA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Ez da ezer. Lasai.</t>
+          <t>(off) Nik ere horixe esan nion, baina berak ezetz eta ezetz.</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -4688,12 +4692,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>00:14:23:18</t>
+          <t>00:14:18:05</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>00:14:25:00</t>
+          <t>00:14:19:04</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4703,7 +4707,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>(ad lib)</t>
+          <t>Kontaidazu.</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -4713,12 +4717,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>00:14:25:00</t>
+          <t>00:14:22:12</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>00:14:28:21</t>
+          <t>00:14:23:18</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4728,7 +4732,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>(gainean) (ad lib)</t>
+          <t>Ez da ezer. Lasai.</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -4738,12 +4742,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>00:14:27:08</t>
+          <t>00:14:23:18</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>00:14:36:07</t>
+          <t>00:14:25:00</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4753,7 +4757,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Gurasoekin hitz egitea zaila izan daiteke, baina zer kezka duzun kontatu nahi badidazu... Nutella eman didazu eta kontratatu egin nauzu.</t>
+          <t>(ad lib)</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -4763,22 +4767,22 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>00:14:36:07</t>
+          <t>00:14:25:00</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>00:14:42:02</t>
+          <t>00:14:28:21</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ALENA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Zure abokatua naiz orain. (atzean) Mm? Konfidentzialtasunari eutsi behar diot.</t>
+          <t>(gainean) (ad lib)</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -4788,12 +4792,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>00:14:42:02</t>
+          <t>00:14:27:08</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>00:14:51:00</t>
+          <t>00:14:36:07</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4803,7 +4807,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>(gainean) (ad lib)</t>
+          <t>Gurasoekin hitz egitea zaila izan daiteke, baina zer kezka duzun kontatu nahi badidazu... Nutella eman didazu eta kontratatu egin nauzu.</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -4813,12 +4817,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>00:14:58:17</t>
+          <t>00:14:36:07</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>00:14:59:03</t>
+          <t>00:14:42:02</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4828,7 +4832,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Nondik atera duzu?</t>
+          <t>Zure abokatua naiz orain. (atzean) Mm? Konfidentzialtasunari eutsi behar diot.</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -4838,12 +4842,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>00:14:59:03</t>
+          <t>00:14:42:02</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>00:15:03:10</t>
+          <t>00:14:51:00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4853,7 +4857,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Aitagandik. Berak ez daki.</t>
+          <t>(gainean) (ad lib)</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -4863,12 +4867,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>00:15:04:16</t>
+          <t>00:14:58:17</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>00:15:09:17</t>
+          <t>00:14:59:03</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4878,7 +4882,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>(ad lib) _ Anna gure bezeroa da.</t>
+          <t>Nondik atera duzu?</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -4888,12 +4892,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>00:15:11:22</t>
+          <t>00:14:59:03</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>00:15:12:10</t>
+          <t>00:15:03:10</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4903,7 +4907,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Bezeroa?</t>
+          <t>Aitagandik. Berak ez daki.</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -4913,12 +4917,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>00:15:13:09</t>
+          <t>00:15:04:16</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>00:15:18:10</t>
+          <t>00:15:09:17</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4928,7 +4932,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>(ad lib) _ Interneten biluzik ageri zen argazkiak kentzen lagundu genion.</t>
+          <t>(ad lib) _ Anna gure bezeroa da.</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -4938,12 +4942,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>00:15:18:10</t>
+          <t>00:15:11:22</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>00:15:19:23</t>
+          <t>00:15:12:10</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4953,7 +4957,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Zer esan nahi duzu?</t>
+          <t>Bezeroa?</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -4963,12 +4967,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>00:15:19:23</t>
+          <t>00:15:13:09</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>00:15:22:22</t>
+          <t>00:15:18:10</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4978,7 +4982,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Ahaztua izateko eskubidea negoziatu genuen Googlekin.</t>
+          <t>(ad lib) _ Interneten biluzik ageri zen argazkiak kentzen lagundu genion.</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -4988,12 +4992,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>00:15:22:22</t>
+          <t>00:15:18:10</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>00:15:23:15</t>
+          <t>00:15:19:23</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5003,7 +5007,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Hori posible da?</t>
+          <t>Zer esan nahi duzu?</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -5013,12 +5017,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>00:15:23:15</t>
+          <t>00:15:19:23</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>00:15:27:19</t>
+          <t>00:15:22:22</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5028,7 +5032,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Mm. Zorionez adingabea da eta arin egin genuen.</t>
+          <t>Ahaztua izateko eskubidea negoziatu genuen Googlekin.</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -5038,22 +5042,22 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>00:15:27:19</t>
+          <t>00:15:22:22</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>00:15:30:11</t>
+          <t>00:15:23:15</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ALENA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Bestela, hilabeteak igaro daitezke.</t>
+          <t>Hori posible da?</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -5063,12 +5067,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>00:15:32:03</t>
+          <t>00:15:23:15</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>00:15:36:14</t>
+          <t>00:15:27:19</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5078,7 +5082,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Webguneek kendu egin behar izan zituzten: argazkiak, izena, dena. Ezabatu zuk ere!</t>
+          <t>Mm. Zorionez adingabea da eta arin egin genuen.</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -5088,12 +5092,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>00:15:37:19</t>
+          <t>00:15:27:19</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>00:15:39:13</t>
+          <t>00:15:30:11</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5103,7 +5107,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Nork zabaldu ote du hau?</t>
+          <t>Bestela, hilabeteak igaro daitezke.</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -5113,12 +5117,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>00:15:40:24</t>
+          <t>00:15:32:03</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>00:15:42:18</t>
+          <t>00:15:36:14</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5128,7 +5132,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Normalean mutil-ohia izaten da.</t>
+          <t>Webguneek kendu egin behar izan zituzten: argazkiak, izena, dena. Ezabatu zuk ere!</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -5138,22 +5142,22 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>00:15:45:03</t>
+          <t>00:15:37:19</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>00:15:47:19</t>
+          <t>00:15:39:13</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ALENA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>(atzean-on) Kontuz ibili zure argazkiak eta bideoak bidaltzeko orduan.</t>
+          <t>Nork zabaldu ote du hau?</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -5163,12 +5167,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>00:15:50:21</t>
+          <t>00:15:40:24</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>00:15:54:06</t>
+          <t>00:15:42:18</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5178,7 +5182,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>(on-atzean) Erabat maiteminduta bazaude ere. Hala egotea opa dizut.</t>
+          <t>Normalean mutil-ohia izaten da.</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -5188,12 +5192,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>00:15:54:06</t>
+          <t>00:15:45:03</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>00:15:55:01</t>
+          <t>00:15:47:19</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5203,7 +5207,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>(ad lib)</t>
+          <t>(atzean-on) Kontuz ibili zure argazkiak eta bideoak bidaltzeko orduan.</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -5213,12 +5217,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>00:15:56:23</t>
+          <t>00:15:50:21</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>00:16:00:04</t>
+          <t>00:15:54:06</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5228,7 +5232,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Pixa egitera noa. Etengabeko jarioa daukat.</t>
+          <t>(on-atzean) Erabat maiteminduta bazaude ere. Hala egotea opa dizut.</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -5238,12 +5242,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>00:16:03:12</t>
+          <t>00:15:54:06</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>00:16:06:01</t>
+          <t>00:15:55:01</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5263,72 +5267,72 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>00:16:27:00</t>
+          <t>00:15:56:23</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>00:16:28:10</t>
+          <t>00:16:00:04</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>ALENA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Nire mobila miatzen ibili zara?</t>
+          <t>Pixa egitera noa. Etengabeko jarioa daukat.</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>00:16:29:20</t>
+          <t>00:16:03:12</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>00:16:32:13</t>
+          <t>00:16:06:01</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>V.O.</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>(atzean) Zer? Ez.</t>
+          <t>(NINA ad lib)</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>00:16:39:02</t>
+          <t>00:16:27:00</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>00:16:45:06</t>
+          <t>00:16:28:10</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>ROTULO</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>GAILU BERRI BAT KONEKTATU DA ZURE KONTURA</t>
+          <t>Nire mobila miatzen ibili zara?</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -5338,12 +5342,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>00:16:45:06</t>
+          <t>00:16:29:20</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>00:16:52:24</t>
+          <t>00:16:32:13</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5353,7 +5357,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>(ad lib) (on-atzean) Zure mobila autoarekin lotzen ari nintzela... Annaren selfiea azaldu zitzaidan.</t>
+          <t>(atzean) Zer? Ez.</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -5363,22 +5367,22 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>00:16:55:20</t>
+          <t>00:16:39:02</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>00:16:57:17</t>
+          <t>00:16:45:06</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Eta auskalo zer pentsatu zenuen.</t>
+          <t>(ROTULO)GAILU BERRI BAT KONEKTATU DA ZURE KONTURA</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -5388,12 +5392,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>00:16:57:17</t>
+          <t>00:16:45:06</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>00:17:05:22</t>
+          <t>00:16:52:24</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5403,7 +5407,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>(atzean-on) Bai, Alenak kontatu dit argazkiena. Sentitzen dut. (atzean) Benetan.</t>
+          <t>(ad lib) (on-atzean) Zure mobila autoarekin lotzen ari nintzela... Annaren selfiea azaldu zitzaidan.</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -5413,12 +5417,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>00:17:05:22</t>
+          <t>00:16:55:20</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>00:17:10:03</t>
+          <t>00:16:57:17</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5428,7 +5432,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Erabateko arduragabea izan naiz laneko materiala online gordeta.</t>
+          <t>Eta auskalo zer pentsatu zenuen.</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -5438,22 +5442,22 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>00:17:11:19</t>
+          <t>00:16:57:17</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>00:17:13:15</t>
+          <t>00:17:05:22</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Nork eta alabak hackeatu nau.</t>
+          <t>(atzean-on) Bai, Alenak kontatu dit argazkiena. Sentitzen dut. (atzean) Benetan.</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -5463,12 +5467,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>00:17:13:15</t>
+          <t>00:17:05:22</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>00:17:17:15</t>
+          <t>00:17:10:03</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5478,7 +5482,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>(atzean) Ez dakit zer sartu zaidan buruan. (on) Tuntuna izan naiz.</t>
+          <t>Erabateko arduragabea izan naiz laneko materiala online gordeta.</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -5488,12 +5492,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>00:17:19:11</t>
+          <t>00:17:11:19</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>00:17:28:08</t>
+          <t>00:17:13:15</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5503,7 +5507,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>(atzean) (ad lib) Pasaidazu Chianti bat. Haragiarekin hobeto doa.</t>
+          <t>Nork eta alabak hackeatu nau.</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -5513,22 +5517,22 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>00:17:31:07</t>
+          <t>00:17:13:15</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>00:17:33:00</t>
+          <t>00:17:17:15</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>(on) Zuzenean galdetu behar zenidan.</t>
+          <t>(atzean) Ez dakit zer sartu zaidan buruan. (on) Tuntuna izan naiz.</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -5538,12 +5542,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>00:17:35:03</t>
+          <t>00:17:19:11</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>00:17:39:01</t>
+          <t>00:17:28:08</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5553,7 +5557,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Ezagutu ez bazenu bezala egin zenuen Medak tabletean jarri zuenean.</t>
+          <t>(atzean) (ad lib) Pasaidazu Chianti bat. Haragiarekin hobeto doa.</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -5563,12 +5567,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>00:17:40:03</t>
+          <t>00:17:31:07</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>00:17:44:10</t>
+          <t>00:17:33:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5578,7 +5582,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Eta ez dut ezagutzen. Zer bideo egiten dituen ere ez dakit. Bezero bat da.</t>
+          <t>(on) Zuzenean galdetu behar zenidan.</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -5588,12 +5592,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>00:17:46:19</t>
+          <t>00:17:35:03</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>00:17:51:09</t>
+          <t>00:17:39:01</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -5603,7 +5607,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Aita... (atzean) Badakizu... (on) non egon litekeen?</t>
+          <t>Ezagutu ez bazenu bezala egin zenuen Medak tabletean jarri zuenean.</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -5613,12 +5617,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>00:17:51:09</t>
+          <t>00:17:40:03</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>00:17:55:24</t>
+          <t>00:17:44:10</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5628,7 +5632,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Nola nahi duzu jakitea? Ez dugu bere berri izan azken bi hilabeteotan.</t>
+          <t>Eta ez dut ezagutzen. Zer bideo egiten dituen ere ez dakit. Bezero bat da.</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -5638,22 +5642,22 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>00:17:57:24</t>
+          <t>00:17:46:19</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>00:18:00:12</t>
+          <t>00:17:51:09</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>ROTULO</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Bidalketa-eguna: 2022ko irailak 29</t>
+          <t>Aita... (atzean) Badakizu... (on) non egon litekeen?</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -5663,12 +5667,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>00:18:03:09</t>
+          <t>00:17:51:09</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>00:18:05:09</t>
+          <t>00:17:55:24</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5678,7 +5682,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Gora joan behar dugu. Hau ez da itxura.</t>
+          <t>Nola nahi duzu jakitea? Ez dugu bere berri izan azken bi hilabeteotan.</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -5688,22 +5692,22 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>00:18:06:17</t>
+          <t>00:17:57:24</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>00:18:07:21</t>
+          <t>00:18:00:12</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>ROTULO</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>(off) Goazen.</t>
+          <t>Bidalketa-eguna: 2022ko irailak 29</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -5713,22 +5717,22 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>00:18:12:07</t>
+          <t>00:18:03:09</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>00:18:15:08</t>
+          <t>00:18:05:09</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>(ad lib)</t>
+          <t>Gora joan behar dugu. Hau ez da itxura.</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -5738,62 +5742,62 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>00:18:17:03</t>
+          <t>00:18:06:17</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>00:18:19:22</t>
+          <t>00:18:07:21</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>ROTULO</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Influencer adingabea bueltan da!</t>
+          <t>(off) Goazen.</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>00:18:19:22</t>
+          <t>00:18:12:07</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>00:18:23:06</t>
+          <t>00:18:15:08</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>ROTULO</t>
+          <t>V.O.</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Eraso lotsagarri bat egin diote 14 urteko A.ri</t>
+          <t>(NINA ad lib)</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>00:18:23:06</t>
+          <t>00:18:17:03</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>00:18:31:06</t>
+          <t>00:18:19:22</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5803,7 +5807,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Mendekuzko pornoa</t>
+          <t>Influencer adingabea bueltan da!</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -5813,12 +5817,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>00:18:31:06</t>
+          <t>00:18:19:22</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>00:18:34:13</t>
+          <t>00:18:23:06</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5828,7 +5832,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Traizioa! Baimena eskatu gabe zabaldu dituzte nire argazkiak</t>
+          <t>Eraso lotsagarri bat egin diote 14 urteko A.ri</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -5838,22 +5842,22 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>00:18:34:13</t>
+          <t>00:18:23:06</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>00:18:41:16</t>
+          <t>00:18:31:06</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>ANNA</t>
+          <t>ROTULO</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>(off-on) Seguru asko ikusi dituzue eta sutan nago. Hau mendekuzko pornoa izan da.</t>
+          <t>Mendekuzko pornoa</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -5863,22 +5867,22 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>00:18:41:16</t>
+          <t>00:18:31:06</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>00:18:49:18</t>
+          <t>00:18:34:13</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>ANNA</t>
+          <t>ROTULO</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>(off) Bai, akats handia egin nuen. Baina denok egiten ditugu akatsak. (on) Ez dizuet esango nor izan den nire argazkiak zabaldu dituena.</t>
+          <t>Traizioa! Baimena eskatu gabe zabaldu dituzte nire argazkiak</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -5888,12 +5892,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>00:18:49:18</t>
+          <t>00:18:34:13</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>00:18:54:06</t>
+          <t>00:18:41:16</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5903,7 +5907,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>(off) Ez naiz bera bezain makurra. Baina ez dut neure burua biktimizatuko.</t>
+          <t>(off-on) Seguru asko ikusi dituzue eta sutan nago. Hau mendekuzko pornoa izan da.</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -5913,25 +5917,75 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
+          <t>00:18:41:16</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>00:18:49:18</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>ANNA</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>(off) Bai, akats handia egin nuen. Baina denok egiten ditugu akatsak. (on) Ez dizuet esango nor izan den nire argazkiak zabaldu dituena.</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>00:18:49:18</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
           <t>00:18:54:06</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>ANNA</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>(off) Ez naiz bera bezain makurra. Baina ez dut neure burua biktimizatuko.</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>00:18:54:06</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
         <is>
           <t>00:19:04:00</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>ANNA</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="D222" t="inlineStr">
         <is>
           <t>(on) Gogoan izan. Eta zu... (off) badakit begira zaudela. (on) Merezi duzuna jasoko duzu, putakumea!</t>
         </is>
       </c>
-      <c r="E220" t="n">
+      <c r="E222" t="n">
         <v>14</v>
       </c>
     </row>
